--- a/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,21; 98,99</t>
+          <t>90,29; 98,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,35; 95,36</t>
+          <t>82,87; 95,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,1; 95,6</t>
+          <t>84,67; 95,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,87; 99,3</t>
+          <t>94,08; 99,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,96; 98,98</t>
+          <t>89,9; 98,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,19; 98,5</t>
+          <t>91,6; 98,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,95; 98,67</t>
+          <t>93,82; 98,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>88,94; 96,06</t>
+          <t>89,01; 96,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>89,91; 96,31</t>
+          <t>90,08; 96,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,55; 96,43</t>
+          <t>92,78; 96,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,83; 97,39</t>
+          <t>93,89; 97,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,75; 95,06</t>
+          <t>90,54; 95,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,91; 96,49</t>
+          <t>92,99; 96,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,58; 97,09</t>
+          <t>93,6; 96,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 97,12</t>
+          <t>93,56; 97,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,0</t>
+          <t>93,51; 96,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,27; 96,82</t>
+          <t>94,34; 96,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,81; 95,55</t>
+          <t>92,7; 95,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,13; 93,52</t>
+          <t>90,02; 93,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,87; 95,97</t>
+          <t>93,2; 96,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,61; 93,11</t>
+          <t>89,6; 93,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,46; 94,82</t>
+          <t>91,19; 94,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,98; 95,96</t>
+          <t>93,0; 95,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,57; 94,67</t>
+          <t>91,4; 94,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,41; 93,8</t>
+          <t>91,33; 93,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,59; 95,69</t>
+          <t>93,64; 95,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,93; 93,38</t>
+          <t>91,01; 93,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,27; 94,44</t>
+          <t>89,99; 94,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,94; 91,8</t>
+          <t>87,12; 91,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,95; 90,84</t>
+          <t>86,04; 90,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,48</t>
+          <t>91,8; 95,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,65; 94,63</t>
+          <t>90,68; 94,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,37; 94,93</t>
+          <t>91,34; 94,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,52; 94,44</t>
+          <t>91,82; 94,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89,63; 92,63</t>
+          <t>89,72; 92,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,56; 92,52</t>
+          <t>89,34; 92,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,86; 94,18</t>
+          <t>90,78; 94,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,28; 94,93</t>
+          <t>91,66; 95,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,01; 95,35</t>
+          <t>92,23; 95,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,39; 96,03</t>
+          <t>93,26; 96,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,99; 95,07</t>
+          <t>91,89; 95,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,69; 95,75</t>
+          <t>93,0; 95,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,5; 94,68</t>
+          <t>92,53; 94,7</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>92,46; 94,83</t>
+          <t>92,4; 94,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93,08; 95,25</t>
+          <t>93,01; 95,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,86; 93,75</t>
+          <t>91,91; 93,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,32; 94,2</t>
+          <t>92,34; 94,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,71; 92,7</t>
+          <t>90,77; 92,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,05</t>
+          <t>93,44; 95,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,33; 94,96</t>
+          <t>93,36; 94,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,2; 94,76</t>
+          <t>93,25; 94,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,93; 94,19</t>
+          <t>92,97; 94,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,16; 94,36</t>
+          <t>93,14; 94,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>92,26; 93,52</t>
+          <t>92,27; 93,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,29; 98,99</t>
+          <t>90,98; 98,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,87; 95,19</t>
+          <t>83,97; 94,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,67; 95,63</t>
+          <t>84,8; 95,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,13; 93,46</t>
+          <t>79,86; 93,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,08; 99,3</t>
+          <t>94,17; 99,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,9; 98,96</t>
+          <t>90,8; 98,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,6; 98,6</t>
+          <t>91,28; 98,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,48; 96,83</t>
+          <t>88,74; 96,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,82; 98,61</t>
+          <t>93,83; 98,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>89,01; 96,14</t>
+          <t>89,26; 96,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,08; 96,44</t>
+          <t>90,0; 96,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,5; 94,37</t>
+          <t>87,4; 94,34</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,78; 96,37</t>
+          <t>92,69; 96,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,89; 97,49</t>
+          <t>93,66; 97,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,54; 95,1</t>
+          <t>90,64; 94,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,48; 90,76</t>
+          <t>83,99; 90,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,99; 96,55</t>
+          <t>92,99; 96,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,6; 96,99</t>
+          <t>93,64; 97,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,56; 97,07</t>
+          <t>93,49; 96,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,53; 91,92</t>
+          <t>87,38; 92,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,03</t>
+          <t>93,48; 95,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,34; 96,85</t>
+          <t>94,15; 96,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,7; 95,46</t>
+          <t>92,71; 95,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,71; 90,54</t>
+          <t>86,8; 90,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,02; 93,56</t>
+          <t>90,02; 93,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,2; 96,19</t>
+          <t>93,07; 96,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,6; 93,13</t>
+          <t>89,61; 93,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,74; 92,39</t>
+          <t>87,72; 92,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,19; 94,65</t>
+          <t>91,46; 94,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,0; 95,9</t>
+          <t>93,08; 95,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,4; 94,71</t>
+          <t>91,51; 94,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,58; 92,83</t>
+          <t>89,49; 92,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,33; 93,66</t>
+          <t>91,34; 93,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,64; 95,61</t>
+          <t>93,56; 95,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,01; 93,45</t>
+          <t>91,11; 93,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>89,32; 92,08</t>
+          <t>89,17; 91,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,99; 94,31</t>
+          <t>90,34; 94,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,12; 91,76</t>
+          <t>87,21; 91,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,04; 90,77</t>
+          <t>86,05; 90,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,39; 83,06</t>
+          <t>76,19; 83,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,8; 95,33</t>
+          <t>91,96; 95,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,68; 94,6</t>
+          <t>90,54; 94,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,34; 94,93</t>
+          <t>91,51; 94,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,81; 91,57</t>
+          <t>83,67; 91,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,82; 94,57</t>
+          <t>91,8; 94,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89,72; 92,82</t>
+          <t>89,71; 92,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,34; 92,37</t>
+          <t>89,49; 92,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,32; 87,3</t>
+          <t>81,14; 87,21</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,78; 94,12</t>
+          <t>90,7; 94,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,66; 95,15</t>
+          <t>91,68; 95,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,23; 95,43</t>
+          <t>92,34; 95,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,24; 90,74</t>
+          <t>86,08; 90,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,11</t>
+          <t>93,29; 96,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,89; 95,16</t>
+          <t>91,9; 95,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>93,0; 95,87</t>
+          <t>92,94; 95,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,62; 89,87</t>
+          <t>83,41; 89,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,53; 94,7</t>
+          <t>92,64; 94,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>92,4; 94,65</t>
+          <t>92,39; 94,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93,01; 95,24</t>
+          <t>92,96; 95,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,64; 89,75</t>
+          <t>85,95; 89,77</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,91; 93,75</t>
+          <t>91,94; 93,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,34; 94,22</t>
+          <t>92,41; 94,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,77; 92,65</t>
+          <t>90,76; 92,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,61; 88,34</t>
+          <t>85,76; 88,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,44; 95,04</t>
+          <t>93,53; 95,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,36; 94,89</t>
+          <t>93,29; 94,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>93,25; 94,85</t>
+          <t>93,23; 94,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>87,79; 90,33</t>
+          <t>87,67; 90,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,97; 94,2</t>
+          <t>93,01; 94,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,14; 94,35</t>
+          <t>93,17; 94,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>92,27; 93,59</t>
+          <t>92,29; 93,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87,23; 89,17</t>
+          <t>87,25; 89,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>89,42%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,98; 98,99</t>
+          <t>93,23; 96,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,97; 94,85</t>
+          <t>93,15; 96,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,8; 95,53</t>
+          <t>90,45; 94,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,86; 93,29</t>
+          <t>84,58; 90,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,17; 99,29</t>
+          <t>93,81; 96,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,8; 98,99</t>
+          <t>93,79; 97,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,28; 98,49</t>
+          <t>93,84; 96,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,74; 96,58</t>
+          <t>88,7; 92,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,83; 98,62</t>
+          <t>93,95; 96,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>89,26; 96,31</t>
+          <t>93,96; 96,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,0; 96,38</t>
+          <t>92,65; 95,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,4; 94,34</t>
+          <t>87,58; 91,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>94,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87,67%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>91,82%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,69; 96,33</t>
+          <t>90,02; 93,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,66; 97,33</t>
+          <t>93,07; 96,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,64; 94,98</t>
+          <t>89,61; 93,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 90,6</t>
+          <t>89,36; 95,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,99; 96,59</t>
+          <t>91,46; 94,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,64; 97,05</t>
+          <t>93,08; 95,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 96,98</t>
+          <t>91,51; 94,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,38; 92,06</t>
+          <t>89,67; 92,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 95,95</t>
+          <t>91,34; 93,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94,15; 96,73</t>
+          <t>93,56; 95,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,71; 95,55</t>
+          <t>91,11; 93,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,8; 90,77</t>
+          <t>90,22; 94,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>85,15%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,02; 93,77</t>
+          <t>90,34; 94,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,07; 96,09</t>
+          <t>87,21; 91,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,61; 93,32</t>
+          <t>86,05; 90,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,72; 92,34</t>
+          <t>76,86; 83,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,46; 94,83</t>
+          <t>91,96; 95,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,08; 95,94</t>
+          <t>90,54; 94,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,51; 94,56</t>
+          <t>91,51; 94,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>89,49; 92,83</t>
+          <t>84,48; 94,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,34; 93,87</t>
+          <t>91,8; 94,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,56; 95,67</t>
+          <t>89,71; 92,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,11; 93,5</t>
+          <t>89,49; 92,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>89,17; 91,89</t>
+          <t>82,19; 90,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>85,78%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,34; 94,45</t>
+          <t>90,7; 94,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,21; 91,76</t>
+          <t>91,68; 95,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,05; 90,83</t>
+          <t>92,34; 95,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,19; 83,1</t>
+          <t>85,88; 90,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,36</t>
+          <t>93,29; 96,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,54; 94,44</t>
+          <t>91,9; 95,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,51; 94,99</t>
+          <t>92,94; 95,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,67; 91,66</t>
+          <t>62,55; 89,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,8; 94,4</t>
+          <t>92,64; 94,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89,71; 92,77</t>
+          <t>92,39; 94,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,49; 92,46</t>
+          <t>92,96; 95,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>81,14; 87,21</t>
+          <t>74,51; 89,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>87,97%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>88,13%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,02</t>
+          <t>91,94; 93,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,68; 95,01</t>
+          <t>92,41; 94,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,34; 95,3</t>
+          <t>90,76; 92,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,08; 90,74</t>
+          <t>86,5; 90,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,29; 96,06</t>
+          <t>93,53; 95,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,9; 95,05</t>
+          <t>93,29; 94,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,94; 95,73</t>
+          <t>93,23; 94,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,41; 89,82</t>
+          <t>81,96; 90,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,64; 94,86</t>
+          <t>93,01; 94,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>92,39; 94,68</t>
+          <t>93,17; 94,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>92,96; 95,22</t>
+          <t>92,29; 93,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,95; 89,77</t>
+          <t>85,34; 89,8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>92,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>93,32%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,75%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>87,07%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>94,31%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>94,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>94,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>89,11%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>93,61%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>93,75%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>92,93%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>88,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>91,94; 93,78</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>92,41; 94,13</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>90,76; 92,69</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>85,76; 88,38</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>93,53; 95,16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>93,29; 94,94</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>93,23; 94,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>87,67; 90,32</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>93,01; 94,18</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>93,17; 94,35</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>92,29; 93,51</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>87,25; 89,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,23; 96,47</t>
+          <t>93,21; 96,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,15; 96,51</t>
+          <t>93,08; 96,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,45; 94,64</t>
+          <t>90,44; 94,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,58; 90,59</t>
+          <t>84,96; 90,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,81; 96,91</t>
+          <t>93,71; 96,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,79; 97,04</t>
+          <t>93,69; 96,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,84; 96,84</t>
+          <t>93,71; 96,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,7; 92,5</t>
+          <t>88,53; 92,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,95; 96,21</t>
+          <t>94,02; 96,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>93,96; 96,4</t>
+          <t>94,09; 96,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,65; 95,36</t>
+          <t>92,73; 95,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,58; 91,14</t>
+          <t>87,48; 91,02</t>
         </is>
       </c>
     </row>
@@ -864,52 +865,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,02; 93,77</t>
+          <t>90,1; 93,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,07; 96,09</t>
+          <t>92,97; 95,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,61; 93,32</t>
+          <t>89,22; 93,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,36; 95,69</t>
+          <t>89,32; 95,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,46; 94,83</t>
+          <t>91,5; 94,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,08; 95,94</t>
+          <t>92,93; 95,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,51; 94,56</t>
+          <t>91,51; 94,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,67; 92,91</t>
+          <t>89,74; 92,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,34; 93,87</t>
+          <t>91,33; 93,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,56; 95,67</t>
+          <t>93,63; 95,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>90,22; 94,25</t>
+          <t>90,17; 94,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,34; 94,45</t>
+          <t>90,44; 94,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,21; 91,76</t>
+          <t>87,23; 91,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,05; 90,83</t>
+          <t>86,13; 90,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,86; 83,52</t>
+          <t>76,97; 83,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,96; 95,36</t>
+          <t>91,97; 95,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,54; 94,44</t>
+          <t>90,72; 94,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,51; 94,99</t>
+          <t>91,53; 95,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>84,48; 94,43</t>
+          <t>84,66; 94,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,8; 94,4</t>
+          <t>91,69; 94,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>89,71; 92,77</t>
+          <t>89,73; 92,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>89,49; 92,46</t>
+          <t>89,54; 92,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,19; 90,38</t>
+          <t>82,27; 90,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,02</t>
+          <t>90,72; 94,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,68; 95,01</t>
+          <t>91,6; 95,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,34; 95,3</t>
+          <t>92,15; 95,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,88; 90,77</t>
+          <t>85,99; 90,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,29; 96,06</t>
+          <t>93,26; 96,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,9; 95,05</t>
+          <t>92,1; 95,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,94; 95,73</t>
+          <t>92,73; 95,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,55; 89,48</t>
+          <t>67,14; 89,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,64; 94,86</t>
+          <t>92,5; 94,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,39; 94,68</t>
+          <t>92,41; 94,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,96; 95,22</t>
+          <t>92,92; 95,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,51; 89,33</t>
+          <t>74,0; 89,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,78</t>
+          <t>91,95; 93,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,41; 94,13</t>
+          <t>92,41; 94,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,76; 92,69</t>
+          <t>90,79; 92,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,5; 90,64</t>
+          <t>86,46; 90,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,16</t>
+          <t>93,46; 95,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,29; 94,94</t>
+          <t>93,35; 95,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>93,23; 94,79</t>
+          <t>93,29; 94,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>81,96; 90,48</t>
+          <t>81,31; 90,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>93,01; 94,18</t>
+          <t>92,99; 94,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,17; 94,35</t>
+          <t>93,13; 94,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>92,29; 93,51</t>
+          <t>92,24; 93,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,34; 89,8</t>
+          <t>84,52; 89,66</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>659243</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>668279</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>624918</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>559908</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>656798</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>666627</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>641197</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>612217</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1316040</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1334906</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1266115</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1172125</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>646910; 669577</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>654802; 679563</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>609492; 637194</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>539882; 574968</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>645027; 666366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>653049; 675445</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>628770; 650813</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>597926; 624801</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1299707; 1331253</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1317751; 1350919</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1247052; 1282070</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1146647; 1193118</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1392</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2266</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>884699</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>963698</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>934288</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1099339</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>903458</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>975919</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>971703</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>875668</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1788157</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1939616</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1905991</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1975009</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>866619; 901105</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>946418; 976911</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>911360; 950550</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1065453; 1140390</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>886088; 918188</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>958338; 988606</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>954374; 987470</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>859829; 889234</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1762837; 1811588</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1918626; 1958153</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1880845; 1930201</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1939534; 2035985</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1446</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>627461</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>679347</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>671381</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>567105</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>641023</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>718686</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>733060</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>827709</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1268484</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1398034</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1404441</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1394814</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>613676; 640569</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>660904; 694637</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>652329; 687153</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>542386; 589050</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>627913; 652031</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>702320; 732016</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>718502; 747143</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>790187; 878216</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1248078; 1285159</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1374518; 1421949</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1381068; 1426469</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1347683; 1476595</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>946</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1792</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>871139</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>885611</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>877479</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>821120</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>984658</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>983788</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>985083</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>913091</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1855797</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1869398</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1862562</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1734211</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>854016; 885776</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>867335; 899869</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>861332; 890572</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>796936; 842642</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>968616; 997651</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>967057; 999268</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>966841; 998681</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>735093; 979768</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1831401; 1874983</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1845237; 1891779</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1837351; 1880080</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1496035; 1806453</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2998</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2965</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3108</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6094</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6097</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3042541</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3196935</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3108065</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3047473</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3185936</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3345019</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3331043</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3228685</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6228477</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6541954</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6439108</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6276158</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3012122; 3070252</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3165835; 3225120</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3075473; 3139970</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2991412; 3133167</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3157099; 3211411</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3316066; 3374605</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3303809; 3358725</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2977336; 3311088</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6187214; 6267283</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6498635; 6580603</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6391082; 6478731</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6019189; 6385285</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>